--- a/10_ResiduosSolidosUrbanos/P1014/P1014.xlsx
+++ b/10_ResiduosSolidosUrbanos/P1014/P1014.xlsx
@@ -206,7 +206,9 @@
     <t>Se contó el numero de tiraderos a cielo abierto dentro de cada municipio. Luego se sumó el numero de tiraderos a cielo abierto dentro de los municipios de cada ciudad</t>
   </si>
   <si>
-    <t>Los datos para este parametro se agregaron desde los individuos de una poblacion, por lo que se considera que los datos están completos y que si un municipio no tiene datos significa que ese municipio tiene cero unidades de las que está considerando el parámetro</t>
+    <t>La variable de integridad municipal para esta Dataset es binaria: 
+1 =  El municipio cuenta con informacion 
+0 = El municipio no cuenta con información</t>
   </si>
   <si>
     <t>Descripciones y notas relativas al Dataset</t>
@@ -4582,13 +4584,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>135</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>72</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4982,7 +4984,7 @@
         <v>1433</v>
       </c>
       <c r="E3" s="5">
-        <v>135</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -4996,7 +4998,7 @@
         <v>1434</v>
       </c>
       <c r="E4" s="5">
-        <v>0</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -5010,7 +5012,7 @@
         <v>1435</v>
       </c>
       <c r="E5" s="5">
-        <v>0</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -5427,7 +5429,7 @@
         <v>1</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -5444,7 +5446,7 @@
         <v>1</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -5461,7 +5463,7 @@
         <v>1</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -5495,7 +5497,7 @@
         <v>2</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -5512,7 +5514,7 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>0.2631578947368421</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -5529,7 +5531,7 @@
         <v>1</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -5546,7 +5548,7 @@
         <v>1</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -5563,7 +5565,7 @@
         <v>2</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -5580,7 +5582,7 @@
         <v>2</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -5597,7 +5599,7 @@
         <v>3</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -5614,7 +5616,7 @@
         <v>1</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -5631,7 +5633,7 @@
         <v>1</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>0.06666666666666667</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -5648,7 +5650,7 @@
         <v>2</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -5682,7 +5684,7 @@
         <v>2</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -5699,7 +5701,7 @@
         <v>3</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -5733,7 +5735,7 @@
         <v>1</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>0.07692307692307693</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -5750,7 +5752,7 @@
         <v>5</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>0.2272727272727273</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -5767,7 +5769,7 @@
         <v>2</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -5784,7 +5786,7 @@
         <v>1</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -5801,7 +5803,7 @@
         <v>1</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -5835,7 +5837,7 @@
         <v>2</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -5852,7 +5854,7 @@
         <v>1</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>0.1428571428571428</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -5869,7 +5871,7 @@
         <v>2</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -5886,7 +5888,7 @@
         <v>5</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>0.8333333333333334</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -5903,7 +5905,7 @@
         <v>2</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -5920,7 +5922,7 @@
         <v>1</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -5937,7 +5939,7 @@
         <v>3</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -5954,7 +5956,7 @@
         <v>1</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -5971,7 +5973,7 @@
         <v>2</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -5988,7 +5990,7 @@
         <v>1</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -6158,7 +6160,7 @@
         <v>1</v>
       </c>
       <c r="E45">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -10128,7 +10130,7 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -10145,7 +10147,7 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -10162,7 +10164,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -10179,7 +10181,7 @@
         <v>1</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -10196,7 +10198,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -10213,7 +10215,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -10230,7 +10232,7 @@
         <v>1</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -10247,7 +10249,7 @@
         <v>1</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -10281,7 +10283,7 @@
         <v>2</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -10298,7 +10300,7 @@
         <v>0</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -10315,7 +10317,7 @@
         <v>0</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -10332,7 +10334,7 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>0.2631578947368421</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -10349,7 +10351,7 @@
         <v>0</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -10366,7 +10368,7 @@
         <v>1</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -10383,7 +10385,7 @@
         <v>0</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -10400,7 +10402,7 @@
         <v>1</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -10417,7 +10419,7 @@
         <v>2</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -10434,7 +10436,7 @@
         <v>2</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -10451,7 +10453,7 @@
         <v>3</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -10468,7 +10470,7 @@
         <v>0</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -10485,7 +10487,7 @@
         <v>0</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -10502,7 +10504,7 @@
         <v>1</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -10519,7 +10521,7 @@
         <v>1</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>0.06666666666666667</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -10536,7 +10538,7 @@
         <v>2</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -10553,7 +10555,7 @@
         <v>0</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -10587,7 +10589,7 @@
         <v>2</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -10604,7 +10606,7 @@
         <v>3</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -10638,7 +10640,7 @@
         <v>1</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>0.07692307692307693</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -10655,7 +10657,7 @@
         <v>5</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>0.2272727272727273</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -10672,7 +10674,7 @@
         <v>2</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -10689,7 +10691,7 @@
         <v>0</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -10706,7 +10708,7 @@
         <v>1</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -10723,7 +10725,7 @@
         <v>0</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -10740,7 +10742,7 @@
         <v>0</v>
       </c>
       <c r="E38">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -10757,7 +10759,7 @@
         <v>0</v>
       </c>
       <c r="E39">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -10774,7 +10776,7 @@
         <v>0</v>
       </c>
       <c r="E40">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -10791,7 +10793,7 @@
         <v>0</v>
       </c>
       <c r="E41">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -10808,7 +10810,7 @@
         <v>1</v>
       </c>
       <c r="E42">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -10825,7 +10827,7 @@
         <v>0</v>
       </c>
       <c r="E43">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -10859,7 +10861,7 @@
         <v>0</v>
       </c>
       <c r="E45">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -10876,7 +10878,7 @@
         <v>0</v>
       </c>
       <c r="E46">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -10893,7 +10895,7 @@
         <v>0</v>
       </c>
       <c r="E47">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -10910,7 +10912,7 @@
         <v>2</v>
       </c>
       <c r="E48">
-        <v>1</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -10927,7 +10929,7 @@
         <v>1</v>
       </c>
       <c r="E49">
-        <v>1</v>
+        <v>0.1428571428571428</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -10944,7 +10946,7 @@
         <v>2</v>
       </c>
       <c r="E50">
-        <v>1</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -10961,7 +10963,7 @@
         <v>0</v>
       </c>
       <c r="E51">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -10978,7 +10980,7 @@
         <v>5</v>
       </c>
       <c r="E52">
-        <v>1</v>
+        <v>0.8333333333333334</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -10995,7 +10997,7 @@
         <v>2</v>
       </c>
       <c r="E53">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -11012,7 +11014,7 @@
         <v>0</v>
       </c>
       <c r="E54">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -11029,7 +11031,7 @@
         <v>1</v>
       </c>
       <c r="E55">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -11046,7 +11048,7 @@
         <v>3</v>
       </c>
       <c r="E56">
-        <v>1</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -11063,7 +11065,7 @@
         <v>2</v>
       </c>
       <c r="E57">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -11080,7 +11082,7 @@
         <v>1</v>
       </c>
       <c r="E58">
-        <v>1</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -11097,7 +11099,7 @@
         <v>0</v>
       </c>
       <c r="E59">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -11114,7 +11116,7 @@
         <v>0</v>
       </c>
       <c r="E60">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -11131,7 +11133,7 @@
         <v>0</v>
       </c>
       <c r="E61">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -11148,7 +11150,7 @@
         <v>0</v>
       </c>
       <c r="E62">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -11182,7 +11184,7 @@
         <v>0</v>
       </c>
       <c r="E64">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -11233,7 +11235,7 @@
         <v>0</v>
       </c>
       <c r="E67">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -11267,7 +11269,7 @@
         <v>0</v>
       </c>
       <c r="E69">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -11335,7 +11337,7 @@
         <v>0</v>
       </c>
       <c r="E73">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -11352,7 +11354,7 @@
         <v>0</v>
       </c>
       <c r="E74">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -11369,7 +11371,7 @@
         <v>0</v>
       </c>
       <c r="E75">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -11386,7 +11388,7 @@
         <v>0</v>
       </c>
       <c r="E76">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -11437,7 +11439,7 @@
         <v>0</v>
       </c>
       <c r="E79">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -11454,7 +11456,7 @@
         <v>1</v>
       </c>
       <c r="E80">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -11471,7 +11473,7 @@
         <v>0</v>
       </c>
       <c r="E81">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -11505,7 +11507,7 @@
         <v>0</v>
       </c>
       <c r="E83">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -11522,7 +11524,7 @@
         <v>0</v>
       </c>
       <c r="E84">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -11539,7 +11541,7 @@
         <v>0</v>
       </c>
       <c r="E85">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -11573,7 +11575,7 @@
         <v>0</v>
       </c>
       <c r="E87">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -11607,7 +11609,7 @@
         <v>0</v>
       </c>
       <c r="E89">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -11641,7 +11643,7 @@
         <v>0</v>
       </c>
       <c r="E91">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -11658,7 +11660,7 @@
         <v>0</v>
       </c>
       <c r="E92">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -11675,7 +11677,7 @@
         <v>0</v>
       </c>
       <c r="E93">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -11692,7 +11694,7 @@
         <v>0</v>
       </c>
       <c r="E94">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -11709,7 +11711,7 @@
         <v>0</v>
       </c>
       <c r="E95">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -11726,7 +11728,7 @@
         <v>0</v>
       </c>
       <c r="E96">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -11743,7 +11745,7 @@
         <v>0</v>
       </c>
       <c r="E97">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -11760,7 +11762,7 @@
         <v>0</v>
       </c>
       <c r="E98">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -11845,7 +11847,7 @@
         <v>0</v>
       </c>
       <c r="E103">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -11862,7 +11864,7 @@
         <v>0</v>
       </c>
       <c r="E104">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -11879,7 +11881,7 @@
         <v>0</v>
       </c>
       <c r="E105">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -11896,7 +11898,7 @@
         <v>0</v>
       </c>
       <c r="E106">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -11930,7 +11932,7 @@
         <v>0</v>
       </c>
       <c r="E108">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -11947,7 +11949,7 @@
         <v>0</v>
       </c>
       <c r="E109">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -11981,7 +11983,7 @@
         <v>0</v>
       </c>
       <c r="E111">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -11998,7 +12000,7 @@
         <v>0</v>
       </c>
       <c r="E112">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -12032,7 +12034,7 @@
         <v>0</v>
       </c>
       <c r="E114">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -12049,7 +12051,7 @@
         <v>0</v>
       </c>
       <c r="E115">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -12066,7 +12068,7 @@
         <v>0</v>
       </c>
       <c r="E116">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -12083,7 +12085,7 @@
         <v>0</v>
       </c>
       <c r="E117">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:5">
@@ -12151,7 +12153,7 @@
         <v>0</v>
       </c>
       <c r="E121">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -12168,7 +12170,7 @@
         <v>0</v>
       </c>
       <c r="E122">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -12185,7 +12187,7 @@
         <v>0</v>
       </c>
       <c r="E123">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -12236,7 +12238,7 @@
         <v>0</v>
       </c>
       <c r="E126">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -12270,7 +12272,7 @@
         <v>0</v>
       </c>
       <c r="E128">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:5">
@@ -12287,7 +12289,7 @@
         <v>0</v>
       </c>
       <c r="E129">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:5">
@@ -12304,7 +12306,7 @@
         <v>0</v>
       </c>
       <c r="E130">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:5">
@@ -12321,7 +12323,7 @@
         <v>0</v>
       </c>
       <c r="E131">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:5">
@@ -12372,7 +12374,7 @@
         <v>0</v>
       </c>
       <c r="E134">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:5">
@@ -12389,7 +12391,7 @@
         <v>0</v>
       </c>
       <c r="E135">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:5">
@@ -12406,7 +12408,7 @@
         <v>1</v>
       </c>
       <c r="E136">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
   </sheetData>
